--- a/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookPost.xlsx
+++ b/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookPost.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>user</t>
   </si>
@@ -34,10 +34,16 @@
     <t>Ionela2022</t>
   </si>
   <si>
-    <t>This post test</t>
+    <t>Post message from excel test 1</t>
   </si>
   <si>
-    <t>content message test</t>
+    <t>Content message from excel test 1</t>
+  </si>
+  <si>
+    <t>Post message from excel test 2</t>
+  </si>
+  <si>
+    <t>Content message from excel test 2</t>
   </si>
 </sst>
 </file>
@@ -45,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +73,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,31 +82,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,38 +141,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,23 +172,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -188,16 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,24 +414,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,15 +458,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,17 +479,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -490,16 +487,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,148 +514,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,16 +985,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="42.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="24.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="26.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1027,31 +1035,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="ionela.chiriac@student.unitbv.ro"/>
     <hyperlink ref="A3" r:id="rId1" display="ionela.chiriac@student.unitbv.ro"/>
-    <hyperlink ref="A4" r:id="rId1" display="ionela.chiriac@student.unitbv.ro"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookPost.xlsx
+++ b/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookPost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12345"/>
+    <workbookView windowWidth="18960" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>user</t>
   </si>
@@ -39,22 +39,16 @@
   <si>
     <t>Content message from excel test 1</t>
   </si>
-  <si>
-    <t>Post message from excel test 2</t>
-  </si>
-  <si>
-    <t>Content message from excel test 2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,30 +67,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,7 +90,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +120,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -127,6 +136,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -141,32 +158,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,36 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,10 +408,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -425,24 +417,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +466,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -514,148 +508,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,13 +979,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="42.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="24.8571428571429" customWidth="1"/>
@@ -1027,24 +1021,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="ionela.chiriac@student.unitbv.ro"/>
-    <hyperlink ref="A3" r:id="rId1" display="ionela.chiriac@student.unitbv.ro"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookPost.xlsx
+++ b/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookPost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18960" windowHeight="8265"/>
+    <workbookView windowWidth="19920" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>postMsg</t>
   </si>
@@ -28,13 +22,7 @@
     <t>contentMsg</t>
   </si>
   <si>
-    <t>ionela.chiriac@student.unitbv.ro</t>
-  </si>
-  <si>
-    <t>Ionela2022</t>
-  </si>
-  <si>
-    <t>Post message from excel test 1</t>
+    <t>Post message from excel test</t>
   </si>
   <si>
     <t>Content message from excel test 1</t>
@@ -45,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,7 +63,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,8 +138,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,101 +168,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,25 +200,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,157 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,26 +391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,6 +405,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,21 +458,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -497,6 +474,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -508,156 +496,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,52 +964,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="42.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="24.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="26.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="29.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="ionela.chiriac@student.unitbv.ro"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookPost.xlsx
+++ b/src/main/java/webAutomation/Elearning/unitbv/Utillities/SearchBookPost.xlsx
@@ -25,7 +25,7 @@
     <t>Post message from excel test</t>
   </si>
   <si>
-    <t>Content message from excel test 1</t>
+    <t xml:space="preserve">Content message from excel test </t>
   </si>
 </sst>
 </file>
@@ -34,8 +34,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -47,6 +47,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -56,14 +85,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,38 +93,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,6 +138,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -122,6 +153,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -140,44 +178,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -185,7 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,19 +200,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,13 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,145 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +391,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -409,17 +448,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,30 +483,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -482,162 +491,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,13 +967,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="42.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="24.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="30.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="29.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
